--- a/足メイン.xlsx
+++ b/足メイン.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coffe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coffe\Desktop\スタレ用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35823478-5934-4BF6-A681-0A47F1C93009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEBEBE8-312F-4678-93C2-80E0579C1F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25500" yWindow="0" windowWidth="13005" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
   <si>
     <t>HP%</t>
   </si>
@@ -527,10 +527,10 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -556,17 +556,11 @@
       <c r="C2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
       <c r="E3" t="s">
         <v>43</v>
       </c>
@@ -578,9 +572,6 @@
       <c r="C4" t="s">
         <v>43</v>
       </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -589,9 +580,6 @@
       <c r="C5" t="s">
         <v>43</v>
       </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -632,6 +620,9 @@
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -661,7 +652,7 @@
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E14" t="s">
+      <c r="C14" t="s">
         <v>43</v>
       </c>
     </row>
@@ -699,9 +690,6 @@
       <c r="C18" t="s">
         <v>43</v>
       </c>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -710,6 +698,9 @@
       <c r="C19" t="s">
         <v>43</v>
       </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -731,6 +722,9 @@
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
@@ -747,9 +741,6 @@
       <c r="C24" t="s">
         <v>43</v>
       </c>
-      <c r="E24" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
@@ -790,9 +781,6 @@
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C29" t="s">
-        <v>43</v>
-      </c>
       <c r="E29" t="s">
         <v>43</v>
       </c>
@@ -812,9 +800,6 @@
       <c r="B31" t="s">
         <v>43</v>
       </c>
-      <c r="D31" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -874,9 +859,6 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D40" t="s">
-        <v>43</v>
       </c>
       <c r="E40" t="s">
         <v>43</v>
